--- a/Unity/Assets/Config/Excel/StartConfig/Release_Zpb/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Release_Zpb/StartSceneConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Localhost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Release_Zpb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A20579A-715F-445E-871E-E54364265266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59342D8D-4770-4E24-A9BD-41BB6C6B5621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="41">
   <si>
     <t>所属进程</t>
   </si>
@@ -138,20 +138,31 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>Map3</t>
+  </si>
+  <si>
+    <t>zpbTest</t>
+  </si>
+  <si>
     <t>Dynamic</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Room</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Match</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>PlayerCache</t>
+  </si>
+  <si>
+    <t>Mail</t>
   </si>
 </sst>
 </file>
@@ -575,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -791,7 +802,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -809,7 +820,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -824,10 +835,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -841,10 +852,95 @@
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/StartConfig/Release_Zpb/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Release_Zpb/StartSceneConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Release_Zpb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59342D8D-4770-4E24-A9BD-41BB6C6B5621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA01FE79-4610-440E-A834-B066ADAAAFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3096" yWindow="1968" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -588,7 +588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="145" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -1184,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1DD6FD-6B12-B642-8645-9450390C752E}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView zoomScale="137" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1276,7 +1276,7 @@
         <v>26</v>
       </c>
       <c r="G4" s="4">
-        <v>30300</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">

--- a/Unity/Assets/Config/Excel/StartConfig/Release_Zpb/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Release_Zpb/StartSceneConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Release_Zpb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA01FE79-4610-440E-A834-B066ADAAAFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21CB2AB-9954-470D-9D18-F4650421B57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3096" yWindow="1968" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="42">
   <si>
     <t>所属进程</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>Mail</t>
+  </si>
+  <si>
+    <t>Pay</t>
   </si>
 </sst>
 </file>
@@ -586,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="145" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -909,7 +912,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>14</v>
       </c>
@@ -926,7 +929,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>15</v>
       </c>
@@ -941,6 +944,26 @@
       </c>
       <c r="F18" s="3" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
+        <v>404</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="3">
+        <v>6078</v>
       </c>
     </row>
   </sheetData>
@@ -1184,7 +1207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1DD6FD-6B12-B642-8645-9450390C752E}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
+    <sheetView zoomScale="137" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>

--- a/Unity/Assets/Config/Excel/StartConfig/Release_Zpb/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Release_Zpb/StartSceneConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Release_Zpb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21CB2AB-9954-470D-9D18-F4650421B57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A23949-05EA-446D-A471-B1E3AE49CC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="43">
   <si>
     <t>所属进程</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>Pay</t>
+  </si>
+  <si>
+    <t>Season</t>
   </si>
 </sst>
 </file>
@@ -589,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -964,6 +967,23 @@
       </c>
       <c r="G19" s="3">
         <v>6078</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="3">
+        <v>16</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/StartConfig/Release_Zpb/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Release_Zpb/StartSceneConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Release_Zpb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A23949-05EA-446D-A471-B1E3AE49CC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F248F0-DB00-4065-8414-BD48D89400BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="44">
   <si>
     <t>所属进程</t>
   </si>
@@ -169,6 +169,10 @@
   </si>
   <si>
     <t>Season</t>
+  </si>
+  <si>
+    <t>ActionFromHttp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -592,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -984,6 +988,26 @@
       </c>
       <c r="F20" s="3" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="3">
+        <v>504</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="3">
+        <v>6088</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/StartConfig/Release_Zpb/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Release_Zpb/StartSceneConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Release_Zpb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F248F0-DB00-4065-8414-BD48D89400BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE03E05-8366-4660-AA27-BF40820E2268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="48">
   <si>
     <t>所属进程</t>
   </si>
@@ -173,6 +173,18 @@
   <si>
     <t>ActionFromHttp</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>zpbTestSnow</t>
+  </si>
+  <si>
+    <t>zpbTestSnowForScale</t>
+  </si>
+  <si>
+    <t>zpbTestHome</t>
+  </si>
+  <si>
+    <t>zpbTestDouble</t>
   </si>
 </sst>
 </file>
@@ -596,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -766,10 +778,10 @@
       <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -778,16 +790,15 @@
       <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -796,16 +807,15 @@
       <c r="F9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>7</v>
       </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -814,16 +824,15 @@
       <c r="F10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -832,40 +841,39 @@
       <c r="F11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>9</v>
       </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>10</v>
       </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -879,10 +887,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -896,10 +904,10 @@
         <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -913,27 +921,27 @@
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>14</v>
       </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
@@ -947,15 +955,15 @@
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
-        <v>404</v>
+        <v>16</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -964,18 +972,15 @@
         <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="3">
-        <v>6078</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -984,29 +989,100 @@
         <v>1</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
+        <v>18</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="3">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="3">
+        <v>20</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="3">
+        <v>404</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="3">
+        <v>6078</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="3">
         <v>504</v>
       </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G25" s="3">
         <v>6088</v>
       </c>
     </row>
